--- a/docs/2.项目规划/Refined Resume测试用例.xlsx
+++ b/docs/2.项目规划/Refined Resume测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="311">
   <si>
     <t>用例ＩＤ</t>
   </si>
@@ -363,18 +363,6 @@
   </si>
   <si>
     <t>显示收藏列表</t>
-  </si>
-  <si>
-    <t>作品列表</t>
-  </si>
-  <si>
-    <t>存在作品</t>
-  </si>
-  <si>
-    <t>点开作品按钮</t>
-  </si>
-  <si>
-    <t>显示作品列表</t>
   </si>
   <si>
     <t>社区</t>
@@ -1471,11 +1459,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H85" sqref="H85"/>
+      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2240,7 +2228,7 @@
         <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>11</v>
@@ -2249,7 +2237,7 @@
         <v>106</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,7 +2265,7 @@
     </row>
     <row r="32" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>104</v>
@@ -2291,7 +2279,7 @@
       <c r="E32" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>113</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -2300,7 +2288,7 @@
     </row>
     <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>104</v>
@@ -2314,7 +2302,7 @@
       <c r="E33" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="2" t="s">
         <v>117</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -2323,36 +2311,36 @@
     </row>
     <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>119</v>
+        <v>238</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>120</v>
+        <v>239</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>121</v>
+        <v>240</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>122</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>241</v>
+        <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>242</v>
@@ -2369,7 +2357,7 @@
     </row>
     <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>104</v>
@@ -2378,215 +2366,216 @@
         <v>105</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>247</v>
+        <v>119</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>248</v>
+        <v>120</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>249</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="D37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="H37" s="4" t="s">
         <v>124</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="G38" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="H38" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="H39" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>133</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F40" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F40" s="4" t="s">
+      <c r="G40" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="H40" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>88</v>
+        <v>249</v>
+      </c>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="F43" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>254</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>255</v>
+      <c r="E44" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G44" s="4" t="s">
+      <c r="G44" s="4"/>
+      <c r="H44" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>104</v>
@@ -2598,532 +2587,534 @@
         <v>260</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="G45" s="4"/>
+        <v>262</v>
+      </c>
       <c r="H45" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F46" s="4" t="s">
         <v>266</v>
       </c>
+      <c r="F46" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>268</v>
+        <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G47" s="4"/>
-      <c r="H47" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D48" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>276</v>
+        <v>130</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F49" s="4" t="s">
         <v>275</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>277</v>
+        <v>75</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="G50" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F50" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="H50" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>134</v>
+        <v>277</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>149</v>
+        <v>279</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D52" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="H52" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>274</v>
+        <v>146</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>285</v>
+        <v>147</v>
       </c>
       <c r="H53" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <v>53</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="C54" s="1" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>286</v>
+        <v>152</v>
       </c>
       <c r="G54" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="F55" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>54</v>
-      </c>
-      <c r="B55" s="1" t="s">
+      <c r="C56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G55" s="2" t="s">
+      <c r="G56" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>55</v>
-      </c>
-      <c r="B56" s="1" t="s">
+    <row r="57" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G56" s="2" t="s">
+      <c r="G57" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H57" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D58" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G57" s="4" t="s">
+      <c r="E58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F58" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>57</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G58" s="4" t="s">
+      <c r="H58" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>153</v>
+        <v>90</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="E60" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D61" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>313</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G61" s="4"/>
       <c r="H61" s="2" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>175</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="H62" s="2" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C63" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="F63" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="G63" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F63" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="H63" s="2" t="s">
-        <v>185</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F64" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>69</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E65" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F65" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G65" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>188</v>
+      <c r="H65" s="4" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>189</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>69</v>
@@ -3131,353 +3122,351 @@
     </row>
     <row r="67" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C67" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="E67" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D67" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F67" s="2" t="s">
-        <v>192</v>
+        <v>291</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H67" s="4" t="s">
-        <v>69</v>
+        <v>190</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="E68" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D68" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>183</v>
-      </c>
       <c r="F68" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G68" s="4" t="s">
-        <v>194</v>
+        <v>173</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>176</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="F70" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>178</v>
+      <c r="H70" s="4" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>174</v>
+        <v>304</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>175</v>
+        <v>305</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>198</v>
+        <v>293</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>183</v>
+        <v>294</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>199</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="4" t="s">
-        <v>200</v>
+        <v>296</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D72" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="G72" s="4"/>
+      <c r="H72" s="2" t="s">
         <v>298</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>303</v>
+        <v>202</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="G73" s="4"/>
       <c r="H73" s="2" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>206</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>305</v>
+        <v>205</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E75" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E75" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>207</v>
+      <c r="F75" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>189</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C76" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D77" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F77" s="4" t="s">
+      <c r="H77" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>222</v>
+        <v>198</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E79" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4" t="s">
         <v>220</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="H79" s="4" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G80" s="4"/>
-      <c r="H80" s="4" t="s">
-        <v>224</v>
+      <c r="H80" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>227</v>
@@ -3486,107 +3475,88 @@
         <v>228</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>234</v>
       </c>
       <c r="E83" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="H83" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="H83" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>225</v>
+        <v>303</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>226</v>
+        <v>288</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <v>84</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="C85" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="G84" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D85" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G85" s="4" t="s">
-        <v>296</v>
-      </c>
-      <c r="H85" s="4" t="s">
-        <v>314</v>
+      <c r="H84" s="4" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3636,11 +3606,6 @@
     </row>
     <row r="96" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
         <v>1</v>
       </c>
     </row>

--- a/docs/2.项目规划/Refined Resume测试用例.xlsx
+++ b/docs/2.项目规划/Refined Resume测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="312">
   <si>
     <t>用例ＩＤ</t>
   </si>
@@ -555,9 +555,6 @@
     <t>后台管理系统首页</t>
   </si>
   <si>
-    <t>APP使用监测</t>
-  </si>
-  <si>
     <t>显示具体使用信息</t>
   </si>
   <si>
@@ -1065,6 +1062,14 @@
   </si>
   <si>
     <t>正常</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>绑定手机</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用监测</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1461,9 +1466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A55" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1959,6 +1964,9 @@
       <c r="D19" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>310</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>58</v>
       </c>
@@ -2228,7 +2236,7 @@
         <v>105</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>11</v>
@@ -2237,7 +2245,7 @@
         <v>106</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2317,19 +2325,19 @@
         <v>104</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2343,16 +2351,16 @@
         <v>105</v>
       </c>
       <c r="D35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2510,20 +2518,20 @@
         <v>104</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2534,16 +2542,16 @@
         <v>104</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F43" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F43" s="4" t="s">
+      <c r="G43" s="4" t="s">
         <v>253</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>254</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>140</v>
@@ -2557,20 +2565,20 @@
         <v>104</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F44" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="G44" s="4"/>
       <c r="H44" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2581,19 +2589,19 @@
         <v>104</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="H45" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2604,20 +2612,20 @@
         <v>104</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="G46" s="4"/>
       <c r="H46" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2631,7 +2639,7 @@
         <v>125</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>141</v>
@@ -2640,7 +2648,7 @@
         <v>142</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -2654,19 +2662,19 @@
         <v>125</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G48" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2686,7 +2694,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>75</v>
@@ -2712,7 +2720,7 @@
         <v>141</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>145</v>
@@ -2732,16 +2740,16 @@
         <v>125</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="G51" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>144</v>
@@ -2758,16 +2766,16 @@
         <v>125</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>141</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="G52" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>144</v>
@@ -2790,7 +2798,7 @@
         <v>141</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>147</v>
@@ -2960,13 +2968,13 @@
         <v>90</v>
       </c>
       <c r="D60" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="H60" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2974,20 +2982,20 @@
         <v>61</v>
       </c>
       <c r="B61" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2995,25 +3003,25 @@
         <v>62</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="4" t="s">
         <v>179</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>180</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>143</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3021,22 +3029,22 @@
         <v>63</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F63" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>69</v>
@@ -3047,25 +3055,25 @@
         <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>72</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3073,22 +3081,22 @@
         <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F65" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="G65" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>69</v>
@@ -3099,22 +3107,22 @@
         <v>66</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F66" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G66" s="4" t="s">
         <v>188</v>
-      </c>
-      <c r="G66" s="4" t="s">
-        <v>189</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>69</v>
@@ -3125,25 +3133,25 @@
         <v>67</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3151,22 +3159,22 @@
         <v>68</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>69</v>
@@ -3177,25 +3185,25 @@
         <v>69</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F69" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H69" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3203,22 +3211,22 @@
         <v>70</v>
       </c>
       <c r="B70" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>171</v>
-      </c>
       <c r="D70" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F70" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F70" s="4" t="s">
+      <c r="H70" s="4" t="s">
         <v>195</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3226,23 +3234,23 @@
         <v>71</v>
       </c>
       <c r="B71" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>305</v>
-      </c>
       <c r="D71" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="G71" s="4"/>
       <c r="H71" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3250,23 +3258,23 @@
         <v>72</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G72" s="4"/>
       <c r="H72" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3274,22 +3282,22 @@
         <v>73</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E73" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F73" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="H73" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3297,22 +3305,22 @@
         <v>74</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C74" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="F74" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H74" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3320,22 +3328,22 @@
         <v>75</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C75" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D75" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>212</v>
-      </c>
       <c r="G75" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>144</v>
@@ -3346,22 +3354,22 @@
         <v>76</v>
       </c>
       <c r="B76" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E76" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="F76" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E76" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="F76" s="4" t="s">
+      <c r="H76" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3369,22 +3377,22 @@
         <v>77</v>
       </c>
       <c r="B77" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D77" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E77" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F77" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="H77" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3392,22 +3400,22 @@
         <v>78</v>
       </c>
       <c r="B78" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="F78" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F78" s="4" t="s">
+      <c r="H78" s="4" t="s">
         <v>198</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3415,23 +3423,23 @@
         <v>79</v>
       </c>
       <c r="B79" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>209</v>
-      </c>
       <c r="D79" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3439,23 +3447,23 @@
         <v>80</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="4" t="s">
         <v>224</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>225</v>
       </c>
       <c r="G80" s="4"/>
       <c r="H80" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3463,23 +3471,23 @@
         <v>81</v>
       </c>
       <c r="B81" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D81" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="E81" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="F81" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G81" s="4"/>
       <c r="H81" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3487,22 +3495,22 @@
         <v>82</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D82" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="H82" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="H82" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3510,22 +3518,22 @@
         <v>83</v>
       </c>
       <c r="B83" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>222</v>
-      </c>
       <c r="D83" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F83" s="4" t="s">
+      <c r="H83" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3533,25 +3541,25 @@
         <v>84</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E84" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="F84" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="G84" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
